--- a/EM Analyzer/bin/Debug/Hanaka_reduced - Second.xlsx
+++ b/EM Analyzer/bin/Debug/Hanaka_reduced - Second.xlsx
@@ -502,34 +502,34 @@
         <v>463.7</v>
       </c>
       <c r="I4" s="1">
-        <v>1039.8999999999999</v>
+        <v>1423.8999999999999</v>
       </c>
       <c r="J4" s="1">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>960.19999999999982</v>
+      </c>
+      <c r="L4" s="1">
         <v>3</v>
       </c>
-      <c r="K4" s="1">
-        <v>576.19999999999982</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2</v>
-      </c>
       <c r="M4" s="1">
-        <v>1039.8999999999999</v>
+        <v>1423.8999999999999</v>
       </c>
       <c r="N4" s="1">
+        <v>4</v>
+      </c>
+      <c r="O4" s="1">
+        <v>960.19999999999982</v>
+      </c>
+      <c r="P4" s="1">
         <v>3</v>
       </c>
-      <c r="O4" s="1">
-        <v>576.19999999999982</v>
-      </c>
-      <c r="P4" s="1">
-        <v>2</v>
-      </c>
       <c r="Q4" s="1">
-        <v>1039.8999999999999</v>
+        <v>1423.8999999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S4" s="1">
         <v>0</v>
@@ -585,34 +585,34 @@
         <v>271.9</v>
       </c>
       <c r="I5" s="1">
-        <v>271.9</v>
+        <v>1583.6999999999998</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1307.7999999999997</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M5" s="1">
-        <v>271.9</v>
+        <v>1583.6999999999998</v>
       </c>
       <c r="N5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>1307.7999999999997</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="1">
-        <v>271.9</v>
+        <v>1583.6999999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S5" s="1">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>3.2818181818181813</v>
       </c>
       <c r="Z5" s="1">
-        <v>34022</v>
+        <v>51986</v>
       </c>
       <c r="AA5" s="1">
         <v>2.5</v>
@@ -668,34 +668,34 @@
         <v>116.1</v>
       </c>
       <c r="I6" s="1">
-        <v>116.1</v>
+        <v>1807.9</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1592</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M6" s="1">
-        <v>116.1</v>
+        <v>1807.9</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>1592</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q6" s="1">
-        <v>116.1</v>
+        <v>1807.9</v>
       </c>
       <c r="R6" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
@@ -751,40 +751,40 @@
         <v>279.9</v>
       </c>
       <c r="I7" s="1">
-        <v>279.9</v>
+        <v>2947.8</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>668.3</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" s="1">
-        <v>279.9</v>
+        <v>1015.9</v>
       </c>
       <c r="N7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>1748.3000000000002</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="1">
-        <v>279.9</v>
+        <v>2095.9</v>
       </c>
       <c r="R7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>851.90000000000009</v>
       </c>
       <c r="T7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U7" s="1">
         <v>1</v>
@@ -822,52 +822,52 @@
         <v>30</v>
       </c>
       <c r="E8" s="1">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2480.1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1">
+        <v>404.2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2480.1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>9</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1383.8999999999999</v>
+      </c>
+      <c r="L8" s="1">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1788.1</v>
+      </c>
+      <c r="N8" s="1">
         <v>7</v>
       </c>
-      <c r="F8" s="1">
-        <v>483.90000000000003</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>312.1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>483.90000000000003</v>
-      </c>
-      <c r="J8" s="1">
-        <v>2</v>
-      </c>
-      <c r="K8" s="1">
-        <v>171.8</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1">
-        <v>483.90000000000003</v>
-      </c>
-      <c r="N8" s="1">
-        <v>2</v>
-      </c>
       <c r="O8" s="1">
-        <v>171.8</v>
+        <v>1739.9999999999998</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="1">
-        <v>483.90000000000003</v>
+        <v>2144.2</v>
       </c>
       <c r="R8" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>335.90000000000009</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -882,13 +882,13 @@
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>3.2</v>
+        <v>3.3111111111111113</v>
       </c>
       <c r="Z8" s="1">
-        <v>24376</v>
+        <v>52448</v>
       </c>
       <c r="AA8" s="1">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9">
@@ -905,49 +905,49 @@
         <v>30</v>
       </c>
       <c r="E9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" s="1">
-        <v>2480.1</v>
+        <v>2611.8</v>
       </c>
       <c r="G9" s="1">
         <v>9</v>
       </c>
       <c r="H9" s="1">
-        <v>404.2</v>
+        <v>104</v>
       </c>
       <c r="I9" s="1">
-        <v>2480.1</v>
+        <v>2319.8</v>
       </c>
       <c r="J9" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K9" s="1">
-        <v>1383.8999999999999</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>104</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1835.8</v>
+      </c>
+      <c r="P9" s="1">
         <v>6</v>
       </c>
-      <c r="M9" s="1">
-        <v>1788.1</v>
-      </c>
-      <c r="N9" s="1">
+      <c r="Q9" s="1">
+        <v>1939.8</v>
+      </c>
+      <c r="R9" s="1">
         <v>7</v>
       </c>
-      <c r="O9" s="1">
-        <v>1739.9999999999998</v>
-      </c>
-      <c r="P9" s="1">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>2144.2</v>
-      </c>
-      <c r="R9" s="1">
-        <v>8</v>
-      </c>
       <c r="S9" s="1">
-        <v>335.90000000000009</v>
+        <v>380.00000000000023</v>
       </c>
       <c r="T9" s="1">
         <v>1</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>3.3111111111111113</v>
+        <v>3.2888888888888888</v>
       </c>
       <c r="Z9" s="1">
-        <v>52448</v>
+        <v>62580</v>
       </c>
       <c r="AA9" s="1">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -988,52 +988,52 @@
         <v>30</v>
       </c>
       <c r="E10" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1">
-        <v>2611.8</v>
+        <v>1912.1999999999998</v>
       </c>
       <c r="G10" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H10" s="1">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="I10" s="1">
-        <v>2319.8</v>
+        <v>1612.1999999999998</v>
       </c>
       <c r="J10" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>1524.1999999999998</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M10" s="1">
-        <v>104</v>
+        <v>1612.1999999999998</v>
       </c>
       <c r="N10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O10" s="1">
-        <v>1835.8</v>
+        <v>1524.1999999999998</v>
       </c>
       <c r="P10" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q10" s="1">
-        <v>1939.8</v>
+        <v>1612.1999999999998</v>
       </c>
       <c r="R10" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S10" s="1">
-        <v>380.00000000000023</v>
+        <v>0</v>
       </c>
       <c r="T10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>0</v>
@@ -1048,13 +1048,13 @@
         <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>3.2888888888888888</v>
+        <v>3.2166666666666668</v>
       </c>
       <c r="Z10" s="1">
-        <v>62580</v>
+        <v>48804</v>
       </c>
       <c r="AA10" s="1">
-        <v>3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="11">
@@ -1071,46 +1071,46 @@
         <v>30</v>
       </c>
       <c r="E11" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1">
-        <v>1912.1999999999998</v>
+        <v>2519.7</v>
       </c>
       <c r="G11" s="1">
         <v>6</v>
       </c>
       <c r="H11" s="1">
-        <v>88</v>
+        <v>375.9</v>
       </c>
       <c r="I11" s="1">
-        <v>1612.1999999999998</v>
+        <v>2519.7</v>
       </c>
       <c r="J11" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K11" s="1">
-        <v>1524.1999999999998</v>
+        <v>2143.7999999999997</v>
       </c>
       <c r="L11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M11" s="1">
-        <v>1612.1999999999998</v>
+        <v>2519.7</v>
       </c>
       <c r="N11" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O11" s="1">
-        <v>1524.1999999999998</v>
+        <v>2143.7999999999997</v>
       </c>
       <c r="P11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q11" s="1">
-        <v>1612.1999999999998</v>
+        <v>2519.7</v>
       </c>
       <c r="R11" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
@@ -1131,13 +1131,13 @@
         <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>3.2166666666666668</v>
+        <v>3.1833333333333331</v>
       </c>
       <c r="Z11" s="1">
-        <v>48804</v>
+        <v>66396</v>
       </c>
       <c r="AA11" s="1">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="12">
@@ -1154,73 +1154,73 @@
         <v>30</v>
       </c>
       <c r="E12" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="1">
-        <v>2519.7</v>
+        <v>6319.6</v>
       </c>
       <c r="G12" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H12" s="1">
-        <v>375.9</v>
+        <v>80</v>
       </c>
       <c r="I12" s="1">
-        <v>2119.7</v>
+        <v>6239.6</v>
       </c>
       <c r="J12" s="1">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K12" s="1">
-        <v>1743.7999999999997</v>
+        <v>112</v>
       </c>
       <c r="L12" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M12" s="1">
-        <v>2119.7</v>
+        <v>620</v>
       </c>
       <c r="N12" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O12" s="1">
-        <v>1743.7999999999997</v>
+        <v>3879.7</v>
       </c>
       <c r="P12" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="1">
-        <v>2119.7</v>
+        <v>4387.7</v>
       </c>
       <c r="R12" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="S12" s="1">
-        <v>0</v>
+        <v>1851.9000000000006</v>
       </c>
       <c r="T12" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="1">
-        <v>0</v>
+        <v>5979.8</v>
       </c>
       <c r="W12" s="1">
-        <v>0</v>
+        <v>5979.8</v>
       </c>
       <c r="X12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>3.1833333333333331</v>
+        <v>3.2400000000000007</v>
       </c>
       <c r="Z12" s="1">
-        <v>43714</v>
+        <v>54560</v>
       </c>
       <c r="AA12" s="1">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="13">
@@ -1237,46 +1237,46 @@
         <v>30</v>
       </c>
       <c r="E13" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1">
-        <v>6059.8</v>
+        <v>1856</v>
       </c>
       <c r="G13" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H13" s="1">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="I13" s="1">
-        <v>80</v>
+        <v>1076.1</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>772.09999999999991</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M13" s="1">
-        <v>80</v>
+        <v>1076.1</v>
       </c>
       <c r="N13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>772.09999999999991</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q13" s="1">
-        <v>80</v>
+        <v>1076.1</v>
       </c>
       <c r="R13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         <v>1</v>
       </c>
       <c r="V13" s="1">
-        <v>5979.8</v>
+        <v>1076.1</v>
       </c>
       <c r="W13" s="1">
-        <v>5979.8</v>
+        <v>1076.1</v>
       </c>
       <c r="X13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <v>3.2473684210526321</v>
+        <v>3.1999999999999997</v>
       </c>
       <c r="Z13" s="1">
-        <v>54982.105263157893</v>
+        <v>35816</v>
       </c>
       <c r="AA13" s="1">
-        <v>5.6</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="14">
@@ -1320,52 +1320,52 @@
         <v>30</v>
       </c>
       <c r="E14" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1">
-        <v>2115.8</v>
+        <v>1091.9</v>
       </c>
       <c r="G14" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H14" s="1">
-        <v>416</v>
+        <v>284</v>
       </c>
       <c r="I14" s="1">
-        <v>1751.9</v>
+        <v>1091.9</v>
       </c>
       <c r="J14" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>807.90000000000009</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M14" s="1">
-        <v>416</v>
+        <v>1091.9</v>
       </c>
       <c r="N14" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O14" s="1">
-        <v>1076.1</v>
+        <v>807.90000000000009</v>
       </c>
       <c r="P14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q14" s="1">
-        <v>1492.1</v>
+        <v>1091.9</v>
       </c>
       <c r="R14" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S14" s="1">
-        <v>259.80000000000018</v>
+        <v>0</v>
       </c>
       <c r="T14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>0</v>
@@ -1380,13 +1380,13 @@
         <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <v>3.1875</v>
+        <v>3.05</v>
       </c>
       <c r="Z14" s="1">
-        <v>38159</v>
+        <v>32384</v>
       </c>
       <c r="AA14" s="1">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="15">
@@ -1403,73 +1403,73 @@
         <v>30</v>
       </c>
       <c r="E15" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" s="1">
-        <v>1091.9</v>
+        <v>2932.1</v>
       </c>
       <c r="G15" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H15" s="1">
-        <v>284</v>
+        <v>79.9</v>
       </c>
       <c r="I15" s="1">
-        <v>1091.9</v>
+        <v>2932.1</v>
       </c>
       <c r="J15" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K15" s="1">
-        <v>807.90000000000009</v>
+        <v>2852.2</v>
       </c>
       <c r="L15" s="1">
+        <v>5</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2932.1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>6</v>
+      </c>
+      <c r="O15" s="1">
+        <v>2724.0999999999995</v>
+      </c>
+      <c r="P15" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>2803.9999999999995</v>
+      </c>
+      <c r="R15" s="1">
+        <v>5</v>
+      </c>
+      <c r="S15" s="1">
+        <v>128.10000000000036</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1">
+        <v>1860.3</v>
+      </c>
+      <c r="W15" s="1">
+        <v>1860.3</v>
+      </c>
+      <c r="X15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>63976</v>
+      </c>
+      <c r="AA15" s="1">
         <v>3</v>
-      </c>
-      <c r="M15" s="1">
-        <v>1091.9</v>
-      </c>
-      <c r="N15" s="1">
-        <v>4</v>
-      </c>
-      <c r="O15" s="1">
-        <v>807.90000000000009</v>
-      </c>
-      <c r="P15" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>1091.9</v>
-      </c>
-      <c r="R15" s="1">
-        <v>4</v>
-      </c>
-      <c r="S15" s="1">
-        <v>0</v>
-      </c>
-      <c r="T15" s="1">
-        <v>0</v>
-      </c>
-      <c r="U15" s="1">
-        <v>0</v>
-      </c>
-      <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15" s="1">
-        <v>0</v>
-      </c>
-      <c r="X15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>3.05</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>32384</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>1.6</v>
       </c>
     </row>
     <row r="16">
@@ -1486,46 +1486,46 @@
         <v>30</v>
       </c>
       <c r="E16" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" s="1">
-        <v>2932.1</v>
+        <v>1687.6999999999998</v>
       </c>
       <c r="G16" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H16" s="1">
-        <v>79.9</v>
+        <v>287.7</v>
       </c>
       <c r="I16" s="1">
-        <v>1071.8</v>
+        <v>1443.6999999999998</v>
       </c>
       <c r="J16" s="1">
+        <v>3</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1155.9999999999998</v>
+      </c>
+      <c r="L16" s="1">
         <v>2</v>
       </c>
-      <c r="K16" s="1">
-        <v>991.9</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1</v>
-      </c>
       <c r="M16" s="1">
-        <v>1071.8</v>
+        <v>1443.6999999999998</v>
       </c>
       <c r="N16" s="1">
+        <v>3</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1155.9999999999998</v>
+      </c>
+      <c r="P16" s="1">
         <v>2</v>
       </c>
-      <c r="O16" s="1">
-        <v>991.9</v>
-      </c>
-      <c r="P16" s="1">
-        <v>1</v>
-      </c>
       <c r="Q16" s="1">
-        <v>1071.8</v>
+        <v>1443.6999999999998</v>
       </c>
       <c r="R16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S16" s="1">
         <v>0</v>
@@ -1534,25 +1534,25 @@
         <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" s="1">
-        <v>1860.3</v>
+        <v>0</v>
       </c>
       <c r="W16" s="1">
-        <v>1860.3</v>
+        <v>0</v>
       </c>
       <c r="X16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y16" s="1">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Z16" s="1">
-        <v>30257.333333333332</v>
+        <v>35904</v>
       </c>
       <c r="AA16" s="1">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="17">
@@ -1569,46 +1569,46 @@
         <v>30</v>
       </c>
       <c r="E17" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" s="1">
-        <v>1687.6999999999998</v>
+        <v>2455.7</v>
       </c>
       <c r="G17" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H17" s="1">
-        <v>287.7</v>
+        <v>200</v>
       </c>
       <c r="I17" s="1">
-        <v>1443.6999999999998</v>
+        <v>2455.7</v>
       </c>
       <c r="J17" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K17" s="1">
-        <v>1155.9999999999998</v>
+        <v>2255.7</v>
       </c>
       <c r="L17" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M17" s="1">
-        <v>1443.6999999999998</v>
+        <v>2455.7</v>
       </c>
       <c r="N17" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O17" s="1">
-        <v>1155.9999999999998</v>
+        <v>2255.7</v>
       </c>
       <c r="P17" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q17" s="1">
-        <v>1443.6999999999998</v>
+        <v>2455.7</v>
       </c>
       <c r="R17" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S17" s="1">
         <v>0</v>
@@ -1629,13 +1629,13 @@
         <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>3.3</v>
+        <v>3.1166666666666667</v>
       </c>
       <c r="Z17" s="1">
-        <v>35904</v>
+        <v>60192</v>
       </c>
       <c r="AA17" s="1">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="18">
@@ -1652,52 +1652,52 @@
         <v>30</v>
       </c>
       <c r="E18" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18" s="1">
-        <v>2455.7</v>
+        <v>2680.4</v>
       </c>
       <c r="G18" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H18" s="1">
-        <v>200</v>
+        <v>320.3</v>
       </c>
       <c r="I18" s="1">
-        <v>2455.7</v>
+        <v>2596.5</v>
       </c>
       <c r="J18" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K18" s="1">
-        <v>2255.7</v>
+        <v>580</v>
       </c>
       <c r="L18" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M18" s="1">
-        <v>2455.7</v>
+        <v>900.30000000000007</v>
       </c>
       <c r="N18" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O18" s="1">
-        <v>2255.7</v>
+        <v>1612.1000000000001</v>
       </c>
       <c r="P18" s="1">
         <v>5</v>
       </c>
       <c r="Q18" s="1">
-        <v>2455.7</v>
+        <v>1932.4</v>
       </c>
       <c r="R18" s="1">
         <v>6</v>
       </c>
       <c r="S18" s="1">
-        <v>0</v>
+        <v>664.09999999999991</v>
       </c>
       <c r="T18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U18" s="1">
         <v>0</v>
@@ -1712,13 +1712,13 @@
         <v>0</v>
       </c>
       <c r="Y18" s="1">
-        <v>3.1166666666666667</v>
+        <v>3.1111111111111107</v>
       </c>
       <c r="Z18" s="1">
-        <v>60192</v>
+        <v>75863</v>
       </c>
       <c r="AA18" s="1">
-        <v>2.9</v>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="19">
@@ -1735,73 +1735,73 @@
         <v>30</v>
       </c>
       <c r="E19" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F19" s="1">
-        <v>2680.4</v>
+        <v>2027.9</v>
       </c>
       <c r="G19" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H19" s="1">
-        <v>320.3</v>
+        <v>195.9</v>
       </c>
       <c r="I19" s="1">
-        <v>2452.4</v>
+        <v>1832</v>
       </c>
       <c r="J19" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="1">
-        <v>580</v>
+        <v>1604.1</v>
       </c>
       <c r="L19" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19" s="1">
-        <v>900.30000000000007</v>
+        <v>1832</v>
       </c>
       <c r="N19" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O19" s="1">
-        <v>1612.1000000000001</v>
+        <v>1604.1</v>
       </c>
       <c r="P19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q19" s="1">
-        <v>1932.4</v>
+        <v>1832</v>
       </c>
       <c r="R19" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S19" s="1">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="T19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="1">
-        <v>0</v>
+        <v>1223.9</v>
       </c>
       <c r="W19" s="1">
-        <v>0</v>
+        <v>1223.9</v>
       </c>
       <c r="X19" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <v>3.1111111111111107</v>
+        <v>3.2166666666666668</v>
       </c>
       <c r="Z19" s="1">
-        <v>38548.666666666664</v>
+        <v>33375</v>
       </c>
       <c r="AA19" s="1">
-        <v>3.5999999999999996</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="20">
@@ -1818,73 +1818,73 @@
         <v>30</v>
       </c>
       <c r="E20" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1">
-        <v>2027.9</v>
+        <v>6427.3</v>
       </c>
       <c r="G20" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H20" s="1">
-        <v>195.9</v>
+        <v>328</v>
       </c>
       <c r="I20" s="1">
-        <v>195.9</v>
+        <v>5835.5</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>123.89999999999998</v>
       </c>
       <c r="L20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="1">
-        <v>195.9</v>
+        <v>779.6</v>
       </c>
       <c r="N20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O20" s="1">
-        <v>0</v>
+        <v>3952</v>
       </c>
       <c r="P20" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q20" s="1">
-        <v>195.9</v>
+        <v>4607.7</v>
       </c>
       <c r="R20" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="S20" s="1">
-        <v>0</v>
+        <v>1227.8000000000002</v>
       </c>
       <c r="T20" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V20" s="1">
-        <v>1223.9</v>
+        <v>5835.5</v>
       </c>
       <c r="W20" s="1">
-        <v>1223.9</v>
+        <v>2355.4</v>
       </c>
       <c r="X20" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>3.2166666666666668</v>
+        <v>3.0388888888888883</v>
       </c>
       <c r="Z20" s="1">
-        <v>33375</v>
+        <v>74760</v>
       </c>
       <c r="AA20" s="1">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="21">
@@ -1901,46 +1901,46 @@
         <v>30</v>
       </c>
       <c r="E21" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21" s="1">
-        <v>6427.3</v>
+        <v>683.90000000000009</v>
       </c>
       <c r="G21" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H21" s="1">
-        <v>328</v>
+        <v>211.8</v>
       </c>
       <c r="I21" s="1">
-        <v>328</v>
+        <v>683.90000000000009</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>472.10000000000008</v>
       </c>
       <c r="L21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" s="1">
-        <v>328</v>
+        <v>683.90000000000009</v>
       </c>
       <c r="N21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O21" s="1">
-        <v>0</v>
+        <v>472.10000000000008</v>
       </c>
       <c r="P21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q21" s="1">
-        <v>328</v>
+        <v>683.90000000000009</v>
       </c>
       <c r="R21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S21" s="1">
         <v>0</v>
@@ -1949,25 +1949,25 @@
         <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V21" s="1">
-        <v>5835.5</v>
+        <v>0</v>
       </c>
       <c r="W21" s="1">
-        <v>2355.4</v>
+        <v>0</v>
       </c>
       <c r="X21" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>3.0388888888888883</v>
+        <v>3.1</v>
       </c>
       <c r="Z21" s="1">
-        <v>72332</v>
+        <v>22072</v>
       </c>
       <c r="AA21" s="1">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="22">
@@ -1984,46 +1984,46 @@
         <v>30</v>
       </c>
       <c r="E22" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F22" s="1">
-        <v>683.90000000000009</v>
+        <v>1508</v>
       </c>
       <c r="G22" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H22" s="1">
-        <v>211.8</v>
+        <v>96</v>
       </c>
       <c r="I22" s="1">
-        <v>683.90000000000009</v>
+        <v>1508</v>
       </c>
       <c r="J22" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K22" s="1">
-        <v>472.10000000000008</v>
+        <v>1412</v>
       </c>
       <c r="L22" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M22" s="1">
-        <v>683.90000000000009</v>
+        <v>1508</v>
       </c>
       <c r="N22" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O22" s="1">
-        <v>472.10000000000008</v>
+        <v>1412</v>
       </c>
       <c r="P22" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q22" s="1">
-        <v>683.90000000000009</v>
+        <v>1508</v>
       </c>
       <c r="R22" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S22" s="1">
         <v>0</v>
@@ -2044,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="Y22" s="1">
-        <v>3.1</v>
+        <v>3.0285714285714285</v>
       </c>
       <c r="Z22" s="1">
-        <v>22072</v>
+        <v>50776</v>
       </c>
       <c r="AA22" s="1">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="23">
@@ -2067,46 +2067,46 @@
         <v>30</v>
       </c>
       <c r="E23" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F23" s="1">
-        <v>1508</v>
+        <v>2131.8</v>
       </c>
       <c r="G23" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H23" s="1">
-        <v>96</v>
+        <v>672.2</v>
       </c>
       <c r="I23" s="1">
-        <v>1036</v>
+        <v>2131.8</v>
       </c>
       <c r="J23" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K23" s="1">
-        <v>940</v>
+        <v>1459.6000000000001</v>
       </c>
       <c r="L23" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M23" s="1">
-        <v>1036</v>
+        <v>2131.8</v>
       </c>
       <c r="N23" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O23" s="1">
-        <v>940</v>
+        <v>1459.6000000000001</v>
       </c>
       <c r="P23" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q23" s="1">
-        <v>1036</v>
+        <v>2131.8</v>
       </c>
       <c r="R23" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S23" s="1">
         <v>0</v>
@@ -2127,13 +2127,13 @@
         <v>0</v>
       </c>
       <c r="Y23" s="1">
-        <v>3.0285714285714285</v>
+        <v>2.9400000000000004</v>
       </c>
       <c r="Z23" s="1">
-        <v>49205.571428571428</v>
+        <v>49016</v>
       </c>
       <c r="AA23" s="1">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="24">
@@ -2150,73 +2150,73 @@
         <v>30</v>
       </c>
       <c r="E24" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F24" s="1">
-        <v>2131.8</v>
+        <v>5463.9000000000005</v>
       </c>
       <c r="G24" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H24" s="1">
-        <v>672.2</v>
+        <v>644</v>
       </c>
       <c r="I24" s="1">
-        <v>2131.8</v>
+        <v>4547.9</v>
       </c>
       <c r="J24" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K24" s="1">
-        <v>1459.6000000000001</v>
+        <v>732.1</v>
       </c>
       <c r="L24" s="1">
         <v>4</v>
       </c>
       <c r="M24" s="1">
-        <v>2131.8</v>
+        <v>944.2</v>
       </c>
       <c r="N24" s="1">
         <v>5</v>
       </c>
       <c r="O24" s="1">
-        <v>1459.6000000000001</v>
+        <v>3700.0000000000005</v>
       </c>
       <c r="P24" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Q24" s="1">
-        <v>2131.8</v>
+        <v>3912.1000000000004</v>
       </c>
       <c r="R24" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="S24" s="1">
-        <v>0</v>
+        <v>635.79999999999927</v>
       </c>
       <c r="T24" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V24" s="1">
-        <v>0</v>
+        <v>4547.9</v>
       </c>
       <c r="W24" s="1">
-        <v>0</v>
+        <v>3472.1</v>
       </c>
       <c r="X24" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y24" s="1">
-        <v>2.9400000000000004</v>
+        <v>3.094444444444445</v>
       </c>
       <c r="Z24" s="1">
-        <v>49016</v>
+        <v>92928</v>
       </c>
       <c r="AA24" s="1">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="25">
@@ -2233,73 +2233,73 @@
         <v>30</v>
       </c>
       <c r="E25" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F25" s="1">
-        <v>5463.9000000000005</v>
+        <v>4059.5999999999995</v>
       </c>
       <c r="G25" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H25" s="1">
-        <v>644</v>
+        <v>584</v>
       </c>
       <c r="I25" s="1">
-        <v>916</v>
+        <v>3667.6999999999994</v>
       </c>
       <c r="J25" s="1">
+        <v>9</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>584</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1">
+        <v>2247.6</v>
+      </c>
+      <c r="P25" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>2831.6</v>
+      </c>
+      <c r="R25" s="1">
+        <v>7</v>
+      </c>
+      <c r="S25" s="1">
+        <v>836.09999999999945</v>
+      </c>
+      <c r="T25" s="1">
         <v>2</v>
       </c>
-      <c r="K25" s="1">
-        <v>272</v>
-      </c>
-      <c r="L25" s="1">
-        <v>1</v>
-      </c>
-      <c r="M25" s="1">
-        <v>916</v>
-      </c>
-      <c r="N25" s="1">
-        <v>2</v>
-      </c>
-      <c r="O25" s="1">
-        <v>272</v>
-      </c>
-      <c r="P25" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>916</v>
-      </c>
-      <c r="R25" s="1">
-        <v>2</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0</v>
-      </c>
-      <c r="T25" s="1">
-        <v>0</v>
-      </c>
       <c r="U25" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V25" s="1">
-        <v>4547.9</v>
+        <v>0</v>
       </c>
       <c r="W25" s="1">
-        <v>3472.1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y25" s="1">
-        <v>3.094444444444445</v>
+        <v>3.0900000000000003</v>
       </c>
       <c r="Z25" s="1">
-        <v>60954.666666666664</v>
+        <v>71720</v>
       </c>
       <c r="AA25" s="1">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="26">
@@ -2316,73 +2316,73 @@
         <v>30</v>
       </c>
       <c r="E26" s="1">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="F26" s="1">
-        <v>664</v>
+        <v>4087.7000000000003</v>
       </c>
       <c r="G26" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H26" s="1">
-        <v>152</v>
+        <v>416</v>
       </c>
       <c r="I26" s="1">
-        <v>152</v>
+        <v>3675.9</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1072.1</v>
       </c>
       <c r="L26" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M26" s="1">
-        <v>152</v>
+        <v>1488.1</v>
       </c>
       <c r="N26" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O26" s="1">
-        <v>0</v>
+        <v>2899.9</v>
       </c>
       <c r="P26" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q26" s="1">
-        <v>152</v>
+        <v>3315.9</v>
       </c>
       <c r="R26" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S26" s="1">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="T26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" s="1">
-        <v>0</v>
+        <v>411.8</v>
       </c>
       <c r="W26" s="1">
-        <v>0</v>
+        <v>411.8</v>
       </c>
       <c r="X26" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <v>3.2</v>
+        <v>3.2699999999999996</v>
       </c>
       <c r="Z26" s="1">
-        <v>-1</v>
+        <v>39160</v>
       </c>
       <c r="AA26" s="1">
-        <v>8.3</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="27">
@@ -2399,73 +2399,73 @@
         <v>30</v>
       </c>
       <c r="E27" s="1">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F27" s="1">
-        <v>2179.6</v>
+        <v>2563.7999999999997</v>
       </c>
       <c r="G27" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H27" s="1">
-        <v>132</v>
+        <v>719.8</v>
       </c>
       <c r="I27" s="1">
-        <v>132</v>
+        <v>1799.7999999999997</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>524.09999999999991</v>
       </c>
       <c r="L27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M27" s="1">
-        <v>132</v>
+        <v>1243.8999999999999</v>
       </c>
       <c r="N27" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O27" s="1">
-        <v>0</v>
+        <v>895.99999999999977</v>
       </c>
       <c r="P27" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q27" s="1">
-        <v>132</v>
+        <v>1615.7999999999997</v>
       </c>
       <c r="R27" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S27" s="1">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="T27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V27" s="1">
-        <v>2047.6</v>
+        <v>0</v>
       </c>
       <c r="W27" s="1">
-        <v>1559.6</v>
+        <v>0</v>
       </c>
       <c r="X27" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y27" s="1">
-        <v>3.1777777777777776</v>
+        <v>3.175</v>
       </c>
       <c r="Z27" s="1">
-        <v>58696</v>
+        <v>54208</v>
       </c>
       <c r="AA27" s="1">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="28">
@@ -2482,46 +2482,46 @@
         <v>30</v>
       </c>
       <c r="E28" s="1">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F28" s="1">
-        <v>1855.8000000000002</v>
+        <v>1515.8000000000002</v>
       </c>
       <c r="G28" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H28" s="1">
-        <v>183.9</v>
+        <v>288</v>
       </c>
       <c r="I28" s="1">
-        <v>183.9</v>
+        <v>1515.8000000000002</v>
       </c>
       <c r="J28" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K28" s="1">
-        <v>0</v>
+        <v>1227.8000000000002</v>
       </c>
       <c r="L28" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M28" s="1">
-        <v>183.9</v>
+        <v>1515.8000000000002</v>
       </c>
       <c r="N28" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O28" s="1">
-        <v>0</v>
+        <v>1227.8000000000002</v>
       </c>
       <c r="P28" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q28" s="1">
-        <v>183.9</v>
+        <v>1515.8000000000002</v>
       </c>
       <c r="R28" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S28" s="1">
         <v>0</v>
@@ -2530,25 +2530,25 @@
         <v>0</v>
       </c>
       <c r="U28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" s="1">
-        <v>1483.9</v>
+        <v>0</v>
       </c>
       <c r="W28" s="1">
-        <v>1483.9</v>
+        <v>0</v>
       </c>
       <c r="X28" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <v>3.2714285714285709</v>
+        <v>3.1</v>
       </c>
       <c r="Z28" s="1">
-        <v>45888.857142857145</v>
+        <v>51480</v>
       </c>
       <c r="AA28" s="1">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="29">
@@ -2565,73 +2565,73 @@
         <v>30</v>
       </c>
       <c r="E29" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F29" s="1">
-        <v>4059.5999999999995</v>
+        <v>2487.9</v>
       </c>
       <c r="G29" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H29" s="1">
-        <v>584</v>
+        <v>172</v>
       </c>
       <c r="I29" s="1">
-        <v>3667.6999999999994</v>
+        <v>2280</v>
       </c>
       <c r="J29" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="L29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M29" s="1">
-        <v>584</v>
+        <v>760</v>
       </c>
       <c r="N29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O29" s="1">
-        <v>2247.6</v>
+        <v>1883.9</v>
       </c>
       <c r="P29" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>2055.9</v>
+      </c>
+      <c r="R29" s="1">
         <v>6</v>
       </c>
-      <c r="Q29" s="1">
-        <v>2831.6</v>
-      </c>
-      <c r="R29" s="1">
-        <v>7</v>
-      </c>
       <c r="S29" s="1">
-        <v>836.09999999999945</v>
+        <v>224.09999999999991</v>
       </c>
       <c r="T29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" s="1">
-        <v>0</v>
+        <v>2108</v>
       </c>
       <c r="W29" s="1">
-        <v>0</v>
+        <v>2108</v>
       </c>
       <c r="X29" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y29" s="1">
-        <v>3.0900000000000003</v>
+        <v>3.1624999999999996</v>
       </c>
       <c r="Z29" s="1">
-        <v>67179.2</v>
+        <v>52096</v>
       </c>
       <c r="AA29" s="1">
-        <v>5.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="30">
@@ -2648,49 +2648,49 @@
         <v>30</v>
       </c>
       <c r="E30" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F30" s="1">
-        <v>4087.7000000000003</v>
+        <v>1868.4</v>
       </c>
       <c r="G30" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H30" s="1">
-        <v>416</v>
+        <v>344</v>
       </c>
       <c r="I30" s="1">
-        <v>3675.9</v>
+        <v>1868.4</v>
       </c>
       <c r="J30" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K30" s="1">
-        <v>1072.1</v>
+        <v>776.2</v>
       </c>
       <c r="L30" s="1">
         <v>3</v>
       </c>
       <c r="M30" s="1">
-        <v>1488.1</v>
+        <v>1120.2</v>
       </c>
       <c r="N30" s="1">
         <v>4</v>
       </c>
       <c r="O30" s="1">
-        <v>2899.9</v>
+        <v>1020.3</v>
       </c>
       <c r="P30" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q30" s="1">
-        <v>3315.9</v>
+        <v>1364.3</v>
       </c>
       <c r="R30" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S30" s="1">
-        <v>360</v>
+        <v>504.10000000000014</v>
       </c>
       <c r="T30" s="1">
         <v>1</v>
@@ -2699,22 +2699,22 @@
         <v>1</v>
       </c>
       <c r="V30" s="1">
-        <v>411.8</v>
+        <v>880.2</v>
       </c>
       <c r="W30" s="1">
-        <v>411.8</v>
+        <v>880.2</v>
       </c>
       <c r="X30" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y30" s="1">
-        <v>3.2699999999999996</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="Z30" s="1">
-        <v>42064</v>
+        <v>57112</v>
       </c>
       <c r="AA30" s="1">
-        <v>5.1999999999999993</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="31">
@@ -2731,73 +2731,73 @@
         <v>30</v>
       </c>
       <c r="E31" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F31" s="1">
-        <v>2563.7999999999997</v>
+        <v>2179.6</v>
       </c>
       <c r="G31" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H31" s="1">
-        <v>719.8</v>
+        <v>132</v>
       </c>
       <c r="I31" s="1">
-        <v>1799.7999999999997</v>
+        <v>1559.6</v>
       </c>
       <c r="J31" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K31" s="1">
-        <v>524.09999999999991</v>
+        <v>1215.6999999999998</v>
       </c>
       <c r="L31" s="1">
+        <v>5</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1559.6</v>
+      </c>
+      <c r="N31" s="1">
+        <v>6</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1215.6999999999998</v>
+      </c>
+      <c r="P31" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>1559.6</v>
+      </c>
+      <c r="R31" s="1">
+        <v>6</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
         <v>2</v>
       </c>
-      <c r="M31" s="1">
-        <v>1243.8999999999999</v>
-      </c>
-      <c r="N31" s="1">
-        <v>3</v>
-      </c>
-      <c r="O31" s="1">
-        <v>895.99999999999977</v>
-      </c>
-      <c r="P31" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>1615.7999999999997</v>
-      </c>
-      <c r="R31" s="1">
-        <v>4</v>
-      </c>
-      <c r="S31" s="1">
-        <v>184</v>
-      </c>
-      <c r="T31" s="1">
-        <v>1</v>
-      </c>
-      <c r="U31" s="1">
-        <v>0</v>
-      </c>
       <c r="V31" s="1">
-        <v>0</v>
+        <v>2047.6</v>
       </c>
       <c r="W31" s="1">
-        <v>0</v>
+        <v>1559.6</v>
       </c>
       <c r="X31" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y31" s="1">
-        <v>3.175</v>
+        <v>3.1777777777777776</v>
       </c>
       <c r="Z31" s="1">
-        <v>28314</v>
+        <v>58696</v>
       </c>
       <c r="AA31" s="1">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="32">
@@ -2814,46 +2814,46 @@
         <v>30</v>
       </c>
       <c r="E32" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F32" s="1">
-        <v>1515.8000000000002</v>
+        <v>1712</v>
       </c>
       <c r="G32" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H32" s="1">
-        <v>288</v>
+        <v>300.1</v>
       </c>
       <c r="I32" s="1">
-        <v>1515.8000000000002</v>
+        <v>1712</v>
       </c>
       <c r="J32" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K32" s="1">
-        <v>1227.8000000000002</v>
+        <v>1411.9</v>
       </c>
       <c r="L32" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M32" s="1">
-        <v>1515.8000000000002</v>
+        <v>1712</v>
       </c>
       <c r="N32" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O32" s="1">
-        <v>1227.8000000000002</v>
+        <v>1411.9</v>
       </c>
       <c r="P32" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q32" s="1">
-        <v>1515.8000000000002</v>
+        <v>1712</v>
       </c>
       <c r="R32" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S32" s="1">
         <v>0</v>
@@ -2874,13 +2874,13 @@
         <v>0</v>
       </c>
       <c r="Y32" s="1">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Z32" s="1">
-        <v>51480</v>
+        <v>55088</v>
       </c>
       <c r="AA32" s="1">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="33">
@@ -2897,46 +2897,46 @@
         <v>30</v>
       </c>
       <c r="E33" s="1">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F33" s="1">
-        <v>2487.9</v>
+        <v>1528</v>
       </c>
       <c r="G33" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H33" s="1">
-        <v>172</v>
+        <v>328.2</v>
       </c>
       <c r="I33" s="1">
-        <v>172</v>
+        <v>1528</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>1199.8</v>
       </c>
       <c r="L33" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M33" s="1">
-        <v>172</v>
+        <v>1528</v>
       </c>
       <c r="N33" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O33" s="1">
-        <v>0</v>
+        <v>1199.8</v>
       </c>
       <c r="P33" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q33" s="1">
-        <v>172</v>
+        <v>1528</v>
       </c>
       <c r="R33" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S33" s="1">
         <v>0</v>
@@ -2945,25 +2945,25 @@
         <v>0</v>
       </c>
       <c r="U33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" s="1">
-        <v>2108</v>
+        <v>0</v>
       </c>
       <c r="W33" s="1">
-        <v>2108</v>
+        <v>0</v>
       </c>
       <c r="X33" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y33" s="1">
-        <v>3.1624999999999996</v>
+        <v>3.3</v>
       </c>
       <c r="Z33" s="1">
-        <v>52096</v>
+        <v>58604</v>
       </c>
       <c r="AA33" s="1">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="34">
@@ -2980,73 +2980,73 @@
         <v>30</v>
       </c>
       <c r="E34" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F34" s="1">
-        <v>1868.4</v>
+        <v>1855.8000000000002</v>
       </c>
       <c r="G34" s="1">
+        <v>7</v>
+      </c>
+      <c r="H34" s="1">
+        <v>183.9</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1671.9</v>
+      </c>
+      <c r="J34" s="1">
         <v>6</v>
       </c>
-      <c r="H34" s="1">
-        <v>344</v>
-      </c>
-      <c r="I34" s="1">
-        <v>568</v>
-      </c>
-      <c r="J34" s="1">
-        <v>2</v>
-      </c>
       <c r="K34" s="1">
-        <v>224</v>
+        <v>124</v>
       </c>
       <c r="L34" s="1">
         <v>1</v>
       </c>
       <c r="M34" s="1">
-        <v>568</v>
+        <v>244</v>
       </c>
       <c r="N34" s="1">
         <v>2</v>
       </c>
       <c r="O34" s="1">
-        <v>224</v>
+        <v>648</v>
       </c>
       <c r="P34" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q34" s="1">
-        <v>568</v>
+        <v>768</v>
       </c>
       <c r="R34" s="1">
+        <v>4</v>
+      </c>
+      <c r="S34" s="1">
+        <v>903.90000000000009</v>
+      </c>
+      <c r="T34" s="1">
         <v>2</v>
       </c>
-      <c r="S34" s="1">
-        <v>0</v>
-      </c>
-      <c r="T34" s="1">
-        <v>0</v>
-      </c>
       <c r="U34" s="1">
         <v>1</v>
       </c>
       <c r="V34" s="1">
-        <v>880.2</v>
+        <v>1483.9</v>
       </c>
       <c r="W34" s="1">
-        <v>880.2</v>
+        <v>1483.9</v>
       </c>
       <c r="X34" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y34" s="1">
-        <v>3.1666666666666665</v>
+        <v>3.2714285714285709</v>
       </c>
       <c r="Z34" s="1">
-        <v>28556</v>
+        <v>40766</v>
       </c>
       <c r="AA34" s="1">
-        <v>2.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -3063,46 +3063,46 @@
         <v>30</v>
       </c>
       <c r="E35" s="1">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F35" s="1">
-        <v>1712</v>
+        <v>483.90000000000003</v>
       </c>
       <c r="G35" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H35" s="1">
-        <v>300.1</v>
+        <v>312.1</v>
       </c>
       <c r="I35" s="1">
-        <v>1712</v>
+        <v>0</v>
       </c>
       <c r="J35" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>1411.9</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="M35" s="1">
-        <v>1712</v>
+        <v>0</v>
       </c>
       <c r="N35" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O35" s="1">
-        <v>1411.9</v>
+        <v>0</v>
       </c>
       <c r="P35" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Q35" s="1">
-        <v>1712</v>
+        <v>0</v>
       </c>
       <c r="R35" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S35" s="1">
         <v>0</v>
@@ -3123,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="Y35" s="1">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Z35" s="1">
-        <v>55088</v>
+        <v>24376</v>
       </c>
       <c r="AA35" s="1">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="36">
@@ -3146,46 +3146,46 @@
         <v>30</v>
       </c>
       <c r="E36" s="1">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="F36" s="1">
-        <v>1528</v>
+        <v>664</v>
       </c>
       <c r="G36" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H36" s="1">
-        <v>328.2</v>
+        <v>152</v>
       </c>
       <c r="I36" s="1">
-        <v>1528</v>
+        <v>0</v>
       </c>
       <c r="J36" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>1199.8</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="M36" s="1">
-        <v>1528</v>
+        <v>0</v>
       </c>
       <c r="N36" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O36" s="1">
-        <v>1199.8</v>
+        <v>0</v>
       </c>
       <c r="P36" s="1">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Q36" s="1">
-        <v>1528</v>
+        <v>0</v>
       </c>
       <c r="R36" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S36" s="1">
         <v>0</v>
@@ -3203,16 +3203,16 @@
         <v>0</v>
       </c>
       <c r="X36" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="1">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Z36" s="1">
-        <v>35111.2</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="1">
-        <v>2.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3241,34 +3241,34 @@
         <v>888</v>
       </c>
       <c r="I37" s="1">
-        <v>888</v>
+        <v>0</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
         <v>0</v>
       </c>
       <c r="L37" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M37" s="1">
-        <v>888</v>
+        <v>0</v>
       </c>
       <c r="N37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" s="1">
         <v>0</v>
       </c>
       <c r="P37" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q37" s="1">
-        <v>888</v>
+        <v>0</v>
       </c>
       <c r="R37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" s="1">
         <v>0</v>
@@ -3395,22 +3395,22 @@
         <v>30</v>
       </c>
       <c r="E39" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F39" s="1">
-        <v>2779.6000000000004</v>
+        <v>2188.1</v>
       </c>
       <c r="G39" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H39" s="1">
         <v>400</v>
       </c>
       <c r="I39" s="1">
-        <v>400</v>
+        <v>2188.1</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K39" s="1">
         <v>0</v>
@@ -3425,43 +3425,43 @@
         <v>1</v>
       </c>
       <c r="O39" s="1">
-        <v>0</v>
+        <v>1119.9</v>
       </c>
       <c r="P39" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q39" s="1">
-        <v>400</v>
+        <v>1519.9</v>
       </c>
       <c r="R39" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S39" s="1">
-        <v>0</v>
+        <v>668.19999999999982</v>
       </c>
       <c r="T39" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V39" s="1">
-        <v>2143.6000000000004</v>
+        <v>1568.1</v>
       </c>
       <c r="W39" s="1">
-        <v>1499.8000000000002</v>
+        <v>1568.1</v>
       </c>
       <c r="X39" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y39" s="1">
-        <v>3.9799999999999995</v>
+        <v>3.7375000000000003</v>
       </c>
       <c r="Z39" s="1">
-        <v>48550.8</v>
+        <v>58212</v>
       </c>
       <c r="AA39" s="1">
-        <v>5.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="40">
@@ -3478,73 +3478,73 @@
         <v>30</v>
       </c>
       <c r="E40" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40" s="1">
-        <v>2524</v>
+        <v>2183.8</v>
       </c>
       <c r="G40" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H40" s="1">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="I40" s="1">
-        <v>2524</v>
+        <v>1732</v>
       </c>
       <c r="J40" s="1">
         <v>8</v>
       </c>
       <c r="K40" s="1">
-        <v>0</v>
+        <v>675.9</v>
       </c>
       <c r="L40" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M40" s="1">
-        <v>220</v>
+        <v>931.9</v>
       </c>
       <c r="N40" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O40" s="1">
-        <v>1119.9</v>
+        <v>1032</v>
       </c>
       <c r="P40" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q40" s="1">
-        <v>1339.9</v>
+        <v>1288</v>
       </c>
       <c r="R40" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S40" s="1">
-        <v>1184.1</v>
+        <v>444</v>
       </c>
       <c r="T40" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V40" s="1">
-        <v>0</v>
+        <v>787.8</v>
       </c>
       <c r="W40" s="1">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="X40" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y40" s="1">
-        <v>3.7125000000000004</v>
+        <v>3.75</v>
       </c>
       <c r="Z40" s="1">
-        <v>36382.125</v>
+        <v>51986</v>
       </c>
       <c r="AA40" s="1">
-        <v>11.100000000000001</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="41">
@@ -3561,73 +3561,73 @@
         <v>30</v>
       </c>
       <c r="E41" s="1">
+        <v>5</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2379.6000000000004</v>
+      </c>
+      <c r="G41" s="1">
+        <v>9</v>
+      </c>
+      <c r="H41" s="1">
+        <v>419.9</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1499.8000000000002</v>
+      </c>
+      <c r="J41" s="1">
+        <v>5</v>
+      </c>
+      <c r="K41" s="1">
+        <v>391.6</v>
+      </c>
+      <c r="L41" s="1">
+        <v>2</v>
+      </c>
+      <c r="M41" s="1">
+        <v>811.5</v>
+      </c>
+      <c r="N41" s="1">
         <v>3</v>
       </c>
-      <c r="F41" s="1">
+      <c r="O41" s="1">
+        <v>851.50000000000011</v>
+      </c>
+      <c r="P41" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>1271.4</v>
+      </c>
+      <c r="R41" s="1">
+        <v>4</v>
+      </c>
+      <c r="S41" s="1">
+        <v>228.40000000000009</v>
+      </c>
+      <c r="T41" s="1">
+        <v>1</v>
+      </c>
+      <c r="U41" s="1">
+        <v>1</v>
+      </c>
+      <c r="V41" s="1">
         <v>643.8</v>
       </c>
-      <c r="G41" s="1">
-        <v>2</v>
-      </c>
-      <c r="H41" s="1">
-        <v>376</v>
-      </c>
-      <c r="I41" s="1">
-        <v>376</v>
-      </c>
-      <c r="J41" s="1">
-        <v>1</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0</v>
-      </c>
-      <c r="L41" s="1">
-        <v>0</v>
-      </c>
-      <c r="M41" s="1">
-        <v>376</v>
-      </c>
-      <c r="N41" s="1">
-        <v>1</v>
-      </c>
-      <c r="O41" s="1">
-        <v>0</v>
-      </c>
-      <c r="P41" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>376</v>
-      </c>
-      <c r="R41" s="1">
-        <v>1</v>
-      </c>
-      <c r="S41" s="1">
-        <v>0</v>
-      </c>
-      <c r="T41" s="1">
-        <v>0</v>
-      </c>
-      <c r="U41" s="1">
-        <v>0</v>
-      </c>
-      <c r="V41" s="1">
-        <v>0</v>
-      </c>
       <c r="W41" s="1">
-        <v>0</v>
+        <v>643.8</v>
       </c>
       <c r="X41" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y41" s="1">
-        <v>3.55</v>
+        <v>3.9666666666666663</v>
       </c>
       <c r="Z41" s="1">
-        <v>32571</v>
+        <v>46992</v>
       </c>
       <c r="AA41" s="1">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="42">
@@ -3644,73 +3644,73 @@
         <v>30</v>
       </c>
       <c r="E42" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F42" s="1">
-        <v>2720</v>
+        <v>7171.9000000000005</v>
       </c>
       <c r="G42" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H42" s="1">
-        <v>383.8</v>
+        <v>148</v>
       </c>
       <c r="I42" s="1">
-        <v>1239.8</v>
+        <v>2332.1</v>
       </c>
       <c r="J42" s="1">
+        <v>8</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>148</v>
+      </c>
+      <c r="N42" s="1">
+        <v>1</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1032.2</v>
+      </c>
+      <c r="P42" s="1">
         <v>2</v>
       </c>
-      <c r="K42" s="1">
-        <v>856</v>
-      </c>
-      <c r="L42" s="1">
-        <v>1</v>
-      </c>
-      <c r="M42" s="1">
-        <v>1239.8</v>
-      </c>
-      <c r="N42" s="1">
-        <v>2</v>
-      </c>
-      <c r="O42" s="1">
-        <v>856</v>
-      </c>
-      <c r="P42" s="1">
-        <v>1</v>
-      </c>
       <c r="Q42" s="1">
-        <v>1239.8</v>
+        <v>1180.2</v>
       </c>
       <c r="R42" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S42" s="1">
-        <v>0</v>
+        <v>1151.8999999999999</v>
       </c>
       <c r="T42" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V42" s="1">
-        <v>920.19999999999993</v>
+        <v>4619.7000000000007</v>
       </c>
       <c r="W42" s="1">
-        <v>392</v>
+        <v>4619.7000000000007</v>
       </c>
       <c r="X42" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y42" s="1">
-        <v>3.55</v>
+        <v>3.459090909090909</v>
       </c>
       <c r="Z42" s="1">
-        <v>-1</v>
+        <v>48804</v>
       </c>
       <c r="AA42" s="1">
-        <v>8.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="43">
@@ -3727,73 +3727,73 @@
         <v>30</v>
       </c>
       <c r="E43" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F43" s="1">
-        <v>2183.8</v>
+        <v>3296.0999999999995</v>
       </c>
       <c r="G43" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H43" s="1">
-        <v>256</v>
+        <v>828</v>
       </c>
       <c r="I43" s="1">
-        <v>1396</v>
+        <v>2204</v>
       </c>
       <c r="J43" s="1">
+        <v>7</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1376</v>
+      </c>
+      <c r="L43" s="1">
         <v>6</v>
       </c>
-      <c r="K43" s="1">
-        <v>675.9</v>
-      </c>
-      <c r="L43" s="1">
+      <c r="M43" s="1">
+        <v>2204</v>
+      </c>
+      <c r="N43" s="1">
+        <v>7</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1376</v>
+      </c>
+      <c r="P43" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>2204</v>
+      </c>
+      <c r="R43" s="1">
+        <v>7</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0</v>
+      </c>
+      <c r="U43" s="1">
         <v>3</v>
       </c>
-      <c r="M43" s="1">
-        <v>931.9</v>
-      </c>
-      <c r="N43" s="1">
-        <v>4</v>
-      </c>
-      <c r="O43" s="1">
-        <v>887.90000000000009</v>
-      </c>
-      <c r="P43" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>1143.9</v>
-      </c>
-      <c r="R43" s="1">
-        <v>5</v>
-      </c>
-      <c r="S43" s="1">
-        <v>252.09999999999991</v>
-      </c>
-      <c r="T43" s="1">
-        <v>1</v>
-      </c>
-      <c r="U43" s="1">
-        <v>2</v>
-      </c>
       <c r="V43" s="1">
-        <v>787.8</v>
+        <v>1804.2</v>
       </c>
       <c r="W43" s="1">
-        <v>336</v>
+        <v>423.7</v>
       </c>
       <c r="X43" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y43" s="1">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Z43" s="1">
-        <v>42144.3</v>
+        <v>52448</v>
       </c>
       <c r="AA43" s="1">
-        <v>6.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="44">
@@ -3810,19 +3810,19 @@
         <v>30</v>
       </c>
       <c r="E44" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F44" s="1">
-        <v>7435.9000000000005</v>
+        <v>4039.8</v>
       </c>
       <c r="G44" s="1">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H44" s="1">
-        <v>148</v>
+        <v>107.9</v>
       </c>
       <c r="I44" s="1">
-        <v>2332.1</v>
+        <v>1911.9</v>
       </c>
       <c r="J44" s="1">
         <v>8</v>
@@ -3834,49 +3834,49 @@
         <v>0</v>
       </c>
       <c r="M44" s="1">
-        <v>148</v>
+        <v>107.9</v>
       </c>
       <c r="N44" s="1">
         <v>1</v>
       </c>
       <c r="O44" s="1">
-        <v>1032.2</v>
+        <v>1296.1999999999998</v>
       </c>
       <c r="P44" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>1404.1</v>
+      </c>
+      <c r="R44" s="1">
+        <v>5</v>
+      </c>
+      <c r="S44" s="1">
+        <v>507.80000000000018</v>
+      </c>
+      <c r="T44" s="1">
+        <v>3</v>
+      </c>
+      <c r="U44" s="1">
         <v>2</v>
       </c>
-      <c r="Q44" s="1">
-        <v>1180.2</v>
-      </c>
-      <c r="R44" s="1">
+      <c r="V44" s="1">
+        <v>2127.8999999999996</v>
+      </c>
+      <c r="W44" s="1">
+        <v>1579.8999999999999</v>
+      </c>
+      <c r="X44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>3.8166666666666669</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>62580</v>
+      </c>
+      <c r="AA44" s="1">
         <v>3</v>
-      </c>
-      <c r="S44" s="1">
-        <v>1151.8999999999999</v>
-      </c>
-      <c r="T44" s="1">
-        <v>5</v>
-      </c>
-      <c r="U44" s="1">
-        <v>1</v>
-      </c>
-      <c r="V44" s="1">
-        <v>4619.7000000000007</v>
-      </c>
-      <c r="W44" s="1">
-        <v>4619.7000000000007</v>
-      </c>
-      <c r="X44" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="1">
-        <v>3.4565217391304341</v>
-      </c>
-      <c r="Z44" s="1">
-        <v>43747.956521739128</v>
-      </c>
-      <c r="AA44" s="1">
-        <v>13.3</v>
       </c>
     </row>
     <row r="45">
@@ -3893,73 +3893,73 @@
         <v>30</v>
       </c>
       <c r="E45" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F45" s="1">
-        <v>3296.0999999999995</v>
+        <v>3431.5</v>
       </c>
       <c r="G45" s="1">
         <v>13</v>
       </c>
       <c r="H45" s="1">
-        <v>828</v>
+        <v>247.8</v>
       </c>
       <c r="I45" s="1">
-        <v>828</v>
+        <v>1567.6999999999998</v>
       </c>
       <c r="J45" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>831.8</v>
       </c>
       <c r="L45" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M45" s="1">
-        <v>828</v>
+        <v>1079.6</v>
       </c>
       <c r="N45" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O45" s="1">
-        <v>0</v>
+        <v>831.8</v>
       </c>
       <c r="P45" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q45" s="1">
-        <v>828</v>
+        <v>1079.6</v>
       </c>
       <c r="R45" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S45" s="1">
-        <v>0</v>
+        <v>488.09999999999991</v>
       </c>
       <c r="T45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" s="1">
         <v>3</v>
       </c>
       <c r="V45" s="1">
-        <v>1804.2</v>
+        <v>2491.7</v>
       </c>
       <c r="W45" s="1">
-        <v>423.7</v>
+        <v>727.90000000000009</v>
       </c>
       <c r="X45" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y45" s="1">
-        <v>3.5</v>
+        <v>3.6384615384615384</v>
       </c>
       <c r="Z45" s="1">
-        <v>52448</v>
+        <v>54560</v>
       </c>
       <c r="AA45" s="1">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="46">
@@ -3976,73 +3976,73 @@
         <v>30</v>
       </c>
       <c r="E46" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F46" s="1">
-        <v>5607.5</v>
+        <v>6151.6999999999989</v>
       </c>
       <c r="G46" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H46" s="1">
-        <v>107.9</v>
+        <v>264</v>
       </c>
       <c r="I46" s="1">
-        <v>2751.7000000000003</v>
+        <v>5759.7</v>
       </c>
       <c r="J46" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>255.8</v>
       </c>
       <c r="L46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="1">
-        <v>107.9</v>
+        <v>643.6</v>
       </c>
       <c r="N46" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O46" s="1">
-        <v>2135.9999999999995</v>
+        <v>4203.5</v>
       </c>
       <c r="P46" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="Q46" s="1">
-        <v>2243.8999999999996</v>
+        <v>4591.3</v>
       </c>
       <c r="R46" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="S46" s="1">
-        <v>507.80000000000064</v>
+        <v>1168.3999999999996</v>
       </c>
       <c r="T46" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U46" s="1">
         <v>3</v>
       </c>
       <c r="V46" s="1">
-        <v>2855.8</v>
+        <v>5759.6999999999989</v>
       </c>
       <c r="W46" s="1">
-        <v>727.90000000000009</v>
+        <v>3383.7999999999997</v>
       </c>
       <c r="X46" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y46" s="1">
-        <v>3.7772727272727278</v>
+        <v>3.408695652173912</v>
       </c>
       <c r="Z46" s="1">
-        <v>57912.681818181816</v>
+        <v>66396</v>
       </c>
       <c r="AA46" s="1">
-        <v>13.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="47">
@@ -4071,40 +4071,40 @@
         <v>627.9</v>
       </c>
       <c r="I47" s="1">
-        <v>627.9</v>
+        <v>4612</v>
       </c>
       <c r="J47" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K47" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="L47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="1">
-        <v>627.9</v>
+        <v>432.2</v>
       </c>
       <c r="N47" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O47" s="1">
-        <v>0</v>
+        <v>1660.1999999999998</v>
       </c>
       <c r="P47" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q47" s="1">
-        <v>627.9</v>
+        <v>1952.3999999999999</v>
       </c>
       <c r="R47" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S47" s="1">
-        <v>0</v>
+        <v>2659.6000000000004</v>
       </c>
       <c r="T47" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U47" s="1">
         <v>2</v>
@@ -4122,10 +4122,10 @@
         <v>3.3647058823529408</v>
       </c>
       <c r="Z47" s="1">
-        <v>39786.352941176468</v>
+        <v>35816</v>
       </c>
       <c r="AA47" s="1">
-        <v>7.1999999999999993</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="48">
@@ -4142,73 +4142,73 @@
         <v>30</v>
       </c>
       <c r="E48" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F48" s="1">
-        <v>5887.6999999999989</v>
+        <v>2036</v>
       </c>
       <c r="G48" s="1">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H48" s="1">
-        <v>387.8</v>
+        <v>124.1</v>
       </c>
       <c r="I48" s="1">
-        <v>3383.7999999999997</v>
+        <v>2035.9999999999998</v>
       </c>
       <c r="J48" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K48" s="1">
-        <v>255.8</v>
+        <v>0</v>
       </c>
       <c r="L48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" s="1">
-        <v>643.6</v>
+        <v>124.1</v>
       </c>
       <c r="N48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O48" s="1">
-        <v>2211.5</v>
+        <v>1631.8999999999999</v>
       </c>
       <c r="P48" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q48" s="1">
-        <v>2599.3</v>
+        <v>1755.9999999999998</v>
       </c>
       <c r="R48" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S48" s="1">
-        <v>784.49999999999955</v>
+        <v>280</v>
       </c>
       <c r="T48" s="1">
         <v>2</v>
       </c>
       <c r="U48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V48" s="1">
-        <v>2375.8999999999996</v>
+        <v>479.9</v>
       </c>
       <c r="W48" s="1">
-        <v>704.1</v>
+        <v>479.9</v>
       </c>
       <c r="X48" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <v>3.4090909090909083</v>
+        <v>3.2333333333333329</v>
       </c>
       <c r="Z48" s="1">
-        <v>44670</v>
+        <v>32384</v>
       </c>
       <c r="AA48" s="1">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="49">
@@ -4225,22 +4225,22 @@
         <v>30</v>
       </c>
       <c r="E49" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F49" s="1">
-        <v>1863.7999999999997</v>
+        <v>3335.6</v>
       </c>
       <c r="G49" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H49" s="1">
-        <v>100</v>
+        <v>175.9</v>
       </c>
       <c r="I49" s="1">
-        <v>100</v>
+        <v>428</v>
       </c>
       <c r="J49" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K49" s="1">
         <v>0</v>
@@ -4249,49 +4249,49 @@
         <v>0</v>
       </c>
       <c r="M49" s="1">
-        <v>100</v>
+        <v>144.1</v>
       </c>
       <c r="N49" s="1">
         <v>1</v>
       </c>
       <c r="O49" s="1">
-        <v>0</v>
+        <v>167.9</v>
       </c>
       <c r="P49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="1">
-        <v>100</v>
+        <v>312</v>
       </c>
       <c r="R49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S49" s="1">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49" s="1">
         <v>2</v>
       </c>
       <c r="V49" s="1">
-        <v>1763.7999999999997</v>
+        <v>3159.7</v>
       </c>
       <c r="W49" s="1">
-        <v>427.9</v>
+        <v>428</v>
       </c>
       <c r="X49" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>3.6555555555555554</v>
+        <v>3.5812499999999989</v>
       </c>
       <c r="Z49" s="1">
-        <v>54560</v>
+        <v>63976</v>
       </c>
       <c r="AA49" s="1">
-        <v>2.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -4308,22 +4308,22 @@
         <v>30</v>
       </c>
       <c r="E50" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F50" s="1">
-        <v>2211.9</v>
+        <v>5079.7</v>
       </c>
       <c r="G50" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H50" s="1">
-        <v>124.1</v>
+        <v>368</v>
       </c>
       <c r="I50" s="1">
-        <v>2211.9</v>
+        <v>2739.7</v>
       </c>
       <c r="J50" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K50" s="1">
         <v>0</v>
@@ -4332,49 +4332,49 @@
         <v>0</v>
       </c>
       <c r="M50" s="1">
-        <v>124.1</v>
+        <v>368</v>
       </c>
       <c r="N50" s="1">
         <v>1</v>
       </c>
       <c r="O50" s="1">
-        <v>1604.1</v>
+        <v>1991.8000000000002</v>
       </c>
       <c r="P50" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q50" s="1">
-        <v>1728.1999999999998</v>
+        <v>2359.8</v>
       </c>
       <c r="R50" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S50" s="1">
-        <v>483.70000000000027</v>
+        <v>379.89999999999964</v>
       </c>
       <c r="T50" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" s="1">
-        <v>0</v>
+        <v>2340</v>
       </c>
       <c r="W50" s="1">
-        <v>0</v>
+        <v>2340</v>
       </c>
       <c r="X50" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y50" s="1">
-        <v>3.2399999999999998</v>
+        <v>3.2166666666666668</v>
       </c>
       <c r="Z50" s="1">
-        <v>31468.8</v>
+        <v>60192</v>
       </c>
       <c r="AA50" s="1">
-        <v>2.9000000000000004</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="51">
@@ -4391,49 +4391,49 @@
         <v>30</v>
       </c>
       <c r="E51" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F51" s="1">
-        <v>3159.7</v>
+        <v>2347.6000000000004</v>
       </c>
       <c r="G51" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H51" s="1">
-        <v>144.1</v>
+        <v>284</v>
       </c>
       <c r="I51" s="1">
-        <v>428</v>
+        <v>1195.8</v>
       </c>
       <c r="J51" s="1">
+        <v>5</v>
+      </c>
+      <c r="K51" s="1">
+        <v>391.9</v>
+      </c>
+      <c r="L51" s="1">
+        <v>2</v>
+      </c>
+      <c r="M51" s="1">
+        <v>675.9</v>
+      </c>
+      <c r="N51" s="1">
         <v>3</v>
       </c>
-      <c r="K51" s="1">
-        <v>0</v>
-      </c>
-      <c r="L51" s="1">
-        <v>0</v>
-      </c>
-      <c r="M51" s="1">
-        <v>144.1</v>
-      </c>
-      <c r="N51" s="1">
-        <v>1</v>
-      </c>
       <c r="O51" s="1">
-        <v>167.9</v>
+        <v>715.9</v>
       </c>
       <c r="P51" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q51" s="1">
-        <v>312</v>
+        <v>999.9</v>
       </c>
       <c r="R51" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S51" s="1">
-        <v>116</v>
+        <v>195.89999999999998</v>
       </c>
       <c r="T51" s="1">
         <v>1</v>
@@ -4442,22 +4442,22 @@
         <v>1</v>
       </c>
       <c r="V51" s="1">
-        <v>2731.7</v>
+        <v>1151.8000000000002</v>
       </c>
       <c r="W51" s="1">
-        <v>2731.7</v>
+        <v>1151.8000000000002</v>
       </c>
       <c r="X51" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y51" s="1">
-        <v>3.5999999999999992</v>
+        <v>3.4666666666666668</v>
       </c>
       <c r="Z51" s="1">
-        <v>30970.066666666666</v>
+        <v>33375</v>
       </c>
       <c r="AA51" s="1">
-        <v>11.3</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="52">
@@ -4474,22 +4474,22 @@
         <v>30</v>
       </c>
       <c r="E52" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F52" s="1">
-        <v>5079.7</v>
+        <v>3364.1</v>
       </c>
       <c r="G52" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H52" s="1">
-        <v>368</v>
+        <v>120</v>
       </c>
       <c r="I52" s="1">
-        <v>2739.7</v>
+        <v>3028</v>
       </c>
       <c r="J52" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K52" s="1">
         <v>0</v>
@@ -4498,49 +4498,49 @@
         <v>0</v>
       </c>
       <c r="M52" s="1">
-        <v>368</v>
+        <v>140.1</v>
       </c>
       <c r="N52" s="1">
         <v>1</v>
       </c>
       <c r="O52" s="1">
-        <v>1991.8000000000002</v>
+        <v>2132</v>
       </c>
       <c r="P52" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q52" s="1">
-        <v>2359.8</v>
+        <v>2272.1</v>
       </c>
       <c r="R52" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S52" s="1">
-        <v>379.89999999999964</v>
+        <v>755.90000000000009</v>
       </c>
       <c r="T52" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U52" s="1">
         <v>1</v>
       </c>
       <c r="V52" s="1">
-        <v>2340</v>
+        <v>3028</v>
       </c>
       <c r="W52" s="1">
-        <v>2340</v>
+        <v>3028</v>
       </c>
       <c r="X52" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y52" s="1">
-        <v>3.2166666666666668</v>
+        <v>3.54375</v>
       </c>
       <c r="Z52" s="1">
-        <v>60192</v>
+        <v>75863</v>
       </c>
       <c r="AA52" s="1">
-        <v>2.9</v>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="53">
@@ -4557,73 +4557,73 @@
         <v>30</v>
       </c>
       <c r="E53" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F53" s="1">
-        <v>3364.1</v>
+        <v>2923.7000000000003</v>
       </c>
       <c r="G53" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H53" s="1">
-        <v>120</v>
+        <v>228.1</v>
       </c>
       <c r="I53" s="1">
-        <v>336.1</v>
+        <v>2847.7000000000003</v>
       </c>
       <c r="J53" s="1">
+        <v>12</v>
+      </c>
+      <c r="K53" s="1">
+        <v>343.9</v>
+      </c>
+      <c r="L53" s="1">
         <v>2</v>
       </c>
-      <c r="K53" s="1">
-        <v>0</v>
-      </c>
-      <c r="L53" s="1">
-        <v>0</v>
-      </c>
       <c r="M53" s="1">
-        <v>120</v>
+        <v>572</v>
       </c>
       <c r="N53" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O53" s="1">
-        <v>0</v>
+        <v>2343.9</v>
       </c>
       <c r="P53" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q53" s="1">
-        <v>120</v>
+        <v>2572</v>
       </c>
       <c r="R53" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S53" s="1">
-        <v>216.10000000000002</v>
+        <v>275.70000000000027</v>
       </c>
       <c r="T53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V53" s="1">
-        <v>3028</v>
+        <v>0</v>
       </c>
       <c r="W53" s="1">
-        <v>3028</v>
+        <v>0</v>
       </c>
       <c r="X53" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y53" s="1">
-        <v>3.54375</v>
+        <v>3.1076923076923082</v>
       </c>
       <c r="Z53" s="1">
-        <v>38394.375</v>
+        <v>74760</v>
       </c>
       <c r="AA53" s="1">
-        <v>3.5999999999999996</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="54">
@@ -4640,73 +4640,73 @@
         <v>30</v>
       </c>
       <c r="E54" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F54" s="1">
-        <v>2347.6000000000004</v>
+        <v>2176</v>
       </c>
       <c r="G54" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H54" s="1">
-        <v>284</v>
+        <v>204.1</v>
       </c>
       <c r="I54" s="1">
-        <v>1195.8</v>
+        <v>2176</v>
       </c>
       <c r="J54" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K54" s="1">
-        <v>391.9</v>
+        <v>0</v>
       </c>
       <c r="L54" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M54" s="1">
-        <v>675.9</v>
+        <v>204.1</v>
       </c>
       <c r="N54" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O54" s="1">
-        <v>715.9</v>
+        <v>1103.9</v>
       </c>
       <c r="P54" s="1">
         <v>3</v>
       </c>
       <c r="Q54" s="1">
-        <v>999.9</v>
+        <v>1308</v>
       </c>
       <c r="R54" s="1">
         <v>4</v>
       </c>
       <c r="S54" s="1">
-        <v>195.89999999999998</v>
+        <v>868</v>
       </c>
       <c r="T54" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V54" s="1">
-        <v>1151.8000000000002</v>
+        <v>0</v>
       </c>
       <c r="W54" s="1">
-        <v>1151.8000000000002</v>
+        <v>0</v>
       </c>
       <c r="X54" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y54" s="1">
-        <v>3.4666666666666668</v>
+        <v>3.1999999999999997</v>
       </c>
       <c r="Z54" s="1">
-        <v>33375</v>
+        <v>22072</v>
       </c>
       <c r="AA54" s="1">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="55">
@@ -4723,53 +4723,53 @@
         <v>30</v>
       </c>
       <c r="E55" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F55" s="1">
-        <v>2923.7000000000003</v>
+        <v>1844.2</v>
       </c>
       <c r="G55" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H55" s="1">
-        <v>228.1</v>
+        <v>80</v>
       </c>
       <c r="I55" s="1">
-        <v>2847.7000000000003</v>
+        <v>1844.2</v>
       </c>
       <c r="J55" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K55" s="1">
-        <v>343.9</v>
+        <v>0</v>
       </c>
       <c r="L55" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M55" s="1">
+        <v>80</v>
+      </c>
+      <c r="N55" s="1">
+        <v>1</v>
+      </c>
+      <c r="O55" s="1">
+        <v>1192.2</v>
+      </c>
+      <c r="P55" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>1272.2</v>
+      </c>
+      <c r="R55" s="1">
+        <v>7</v>
+      </c>
+      <c r="S55" s="1">
         <v>572</v>
       </c>
-      <c r="N55" s="1">
+      <c r="T55" s="1">
         <v>3</v>
       </c>
-      <c r="O55" s="1">
-        <v>2343.9</v>
-      </c>
-      <c r="P55" s="1">
-        <v>9</v>
-      </c>
-      <c r="Q55" s="1">
-        <v>2572</v>
-      </c>
-      <c r="R55" s="1">
-        <v>10</v>
-      </c>
-      <c r="S55" s="1">
-        <v>275.70000000000027</v>
-      </c>
-      <c r="T55" s="1">
-        <v>2</v>
-      </c>
       <c r="U55" s="1">
         <v>0</v>
       </c>
@@ -4783,13 +4783,13 @@
         <v>0</v>
       </c>
       <c r="Y55" s="1">
-        <v>3.1076923076923082</v>
+        <v>3.55</v>
       </c>
       <c r="Z55" s="1">
-        <v>74760</v>
+        <v>50776</v>
       </c>
       <c r="AA55" s="1">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="56">
@@ -4806,52 +4806,52 @@
         <v>30</v>
       </c>
       <c r="E56" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F56" s="1">
-        <v>2176</v>
+        <v>3515.7000000000003</v>
       </c>
       <c r="G56" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H56" s="1">
-        <v>204.1</v>
+        <v>268</v>
       </c>
       <c r="I56" s="1">
-        <v>2176</v>
+        <v>3515.7000000000003</v>
       </c>
       <c r="J56" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="L56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" s="1">
-        <v>204.1</v>
+        <v>548</v>
       </c>
       <c r="N56" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O56" s="1">
-        <v>1103.9</v>
+        <v>2443.5</v>
       </c>
       <c r="P56" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Q56" s="1">
-        <v>1308</v>
+        <v>2711.5</v>
       </c>
       <c r="R56" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S56" s="1">
-        <v>868</v>
+        <v>804.20000000000027</v>
       </c>
       <c r="T56" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U56" s="1">
         <v>0</v>
@@ -4866,13 +4866,13 @@
         <v>0</v>
       </c>
       <c r="Y56" s="1">
-        <v>3.1999999999999997</v>
+        <v>3.1142857142857143</v>
       </c>
       <c r="Z56" s="1">
-        <v>22072</v>
+        <v>49016</v>
       </c>
       <c r="AA56" s="1">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="57">
@@ -4889,22 +4889,22 @@
         <v>30</v>
       </c>
       <c r="E57" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F57" s="1">
-        <v>1844.2</v>
+        <v>3883.6</v>
       </c>
       <c r="G57" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H57" s="1">
-        <v>80</v>
+        <v>132.1</v>
       </c>
       <c r="I57" s="1">
-        <v>1844.2</v>
+        <v>3883.6</v>
       </c>
       <c r="J57" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K57" s="1">
         <v>0</v>
@@ -4913,29 +4913,29 @@
         <v>0</v>
       </c>
       <c r="M57" s="1">
-        <v>80</v>
+        <v>132.1</v>
       </c>
       <c r="N57" s="1">
         <v>1</v>
       </c>
       <c r="O57" s="1">
-        <v>1192.2</v>
+        <v>2615.9</v>
       </c>
       <c r="P57" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>2748</v>
+      </c>
+      <c r="R57" s="1">
+        <v>12</v>
+      </c>
+      <c r="S57" s="1">
+        <v>1135.6</v>
+      </c>
+      <c r="T57" s="1">
         <v>6</v>
       </c>
-      <c r="Q57" s="1">
-        <v>1272.2</v>
-      </c>
-      <c r="R57" s="1">
-        <v>7</v>
-      </c>
-      <c r="S57" s="1">
-        <v>572</v>
-      </c>
-      <c r="T57" s="1">
-        <v>3</v>
-      </c>
       <c r="U57" s="1">
         <v>0</v>
       </c>
@@ -4949,13 +4949,13 @@
         <v>0</v>
       </c>
       <c r="Y57" s="1">
-        <v>3.55</v>
+        <v>3.1111111111111116</v>
       </c>
       <c r="Z57" s="1">
-        <v>50776</v>
+        <v>92928</v>
       </c>
       <c r="AA57" s="1">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="58">
@@ -4972,52 +4972,52 @@
         <v>30</v>
       </c>
       <c r="E58" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F58" s="1">
-        <v>3515.7000000000003</v>
+        <v>2300.1000000000004</v>
       </c>
       <c r="G58" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H58" s="1">
-        <v>268</v>
+        <v>88</v>
       </c>
       <c r="I58" s="1">
-        <v>3515.7000000000003</v>
+        <v>2300.1000000000004</v>
       </c>
       <c r="J58" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K58" s="1">
-        <v>280</v>
+        <v>1988.3000000000002</v>
       </c>
       <c r="L58" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M58" s="1">
-        <v>548</v>
+        <v>2076.3</v>
       </c>
       <c r="N58" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O58" s="1">
-        <v>2443.5</v>
+        <v>1988.3000000000002</v>
       </c>
       <c r="P58" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q58" s="1">
-        <v>2711.5</v>
+        <v>2076.3</v>
       </c>
       <c r="R58" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S58" s="1">
-        <v>804.20000000000027</v>
+        <v>223.80000000000018</v>
       </c>
       <c r="T58" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U58" s="1">
         <v>0</v>
@@ -5032,13 +5032,13 @@
         <v>0</v>
       </c>
       <c r="Y58" s="1">
-        <v>3.1142857142857143</v>
+        <v>3.1875000000000004</v>
       </c>
       <c r="Z58" s="1">
-        <v>47898.785714285717</v>
+        <v>71720</v>
       </c>
       <c r="AA58" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="59">
@@ -5055,22 +5055,22 @@
         <v>30</v>
       </c>
       <c r="E59" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F59" s="1">
-        <v>3883.6</v>
+        <v>2171.9</v>
       </c>
       <c r="G59" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H59" s="1">
-        <v>132.1</v>
+        <v>124</v>
       </c>
       <c r="I59" s="1">
-        <v>3883.6</v>
+        <v>2171.9</v>
       </c>
       <c r="J59" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="K59" s="1">
         <v>0</v>
@@ -5079,28 +5079,28 @@
         <v>0</v>
       </c>
       <c r="M59" s="1">
-        <v>132.1</v>
+        <v>124</v>
       </c>
       <c r="N59" s="1">
         <v>1</v>
       </c>
       <c r="O59" s="1">
-        <v>2615.9</v>
+        <v>1308.2</v>
       </c>
       <c r="P59" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q59" s="1">
-        <v>2748</v>
+        <v>1432.2</v>
       </c>
       <c r="R59" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="S59" s="1">
-        <v>1135.6</v>
+        <v>739.7</v>
       </c>
       <c r="T59" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U59" s="1">
         <v>0</v>
@@ -5115,13 +5115,13 @@
         <v>0</v>
       </c>
       <c r="Y59" s="1">
-        <v>3.1111111111111116</v>
+        <v>2.9625</v>
       </c>
       <c r="Z59" s="1">
-        <v>60954.666666666664</v>
+        <v>39160</v>
       </c>
       <c r="AA59" s="1">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="60">
@@ -5138,52 +5138,52 @@
         <v>30</v>
       </c>
       <c r="E60" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F60" s="1">
-        <v>2300.1000000000004</v>
+        <v>1312</v>
       </c>
       <c r="G60" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H60" s="1">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="I60" s="1">
-        <v>2300.1000000000004</v>
+        <v>1312</v>
       </c>
       <c r="J60" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K60" s="1">
-        <v>1988.3000000000002</v>
+        <v>0</v>
       </c>
       <c r="L60" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M60" s="1">
-        <v>2076.3</v>
+        <v>140</v>
       </c>
       <c r="N60" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O60" s="1">
-        <v>1988.3000000000002</v>
+        <v>624</v>
       </c>
       <c r="P60" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q60" s="1">
-        <v>2076.3</v>
+        <v>764</v>
       </c>
       <c r="R60" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S60" s="1">
-        <v>223.80000000000018</v>
+        <v>548</v>
       </c>
       <c r="T60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U60" s="1">
         <v>0</v>
@@ -5198,13 +5198,13 @@
         <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>3.1875000000000004</v>
+        <v>3.1857142857142859</v>
       </c>
       <c r="Z60" s="1">
-        <v>71720</v>
+        <v>54208</v>
       </c>
       <c r="AA60" s="1">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="61">
@@ -5221,52 +5221,52 @@
         <v>30</v>
       </c>
       <c r="E61" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F61" s="1">
-        <v>2171.9</v>
+        <v>1891.9</v>
       </c>
       <c r="G61" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H61" s="1">
-        <v>124</v>
+        <v>372</v>
       </c>
       <c r="I61" s="1">
-        <v>2171.9</v>
+        <v>1891.9</v>
       </c>
       <c r="J61" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K61" s="1">
-        <v>0</v>
+        <v>1244</v>
       </c>
       <c r="L61" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M61" s="1">
-        <v>124</v>
+        <v>1616</v>
       </c>
       <c r="N61" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O61" s="1">
-        <v>1308.2</v>
+        <v>1244</v>
       </c>
       <c r="P61" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q61" s="1">
-        <v>1432.2</v>
+        <v>1616</v>
       </c>
       <c r="R61" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S61" s="1">
-        <v>739.7</v>
+        <v>275.90000000000009</v>
       </c>
       <c r="T61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U61" s="1">
         <v>0</v>
@@ -5281,13 +5281,13 @@
         <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <v>2.9625</v>
+        <v>3.35</v>
       </c>
       <c r="Z61" s="1">
-        <v>39160</v>
+        <v>51480</v>
       </c>
       <c r="AA61" s="1">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="62">
@@ -5304,52 +5304,52 @@
         <v>30</v>
       </c>
       <c r="E62" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F62" s="1">
-        <v>1312</v>
+        <v>1655.9</v>
       </c>
       <c r="G62" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H62" s="1">
-        <v>140</v>
+        <v>239.9</v>
       </c>
       <c r="I62" s="1">
-        <v>1312</v>
+        <v>1655.9</v>
       </c>
       <c r="J62" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K62" s="1">
-        <v>0</v>
+        <v>119.99999999999997</v>
       </c>
       <c r="L62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" s="1">
-        <v>140</v>
+        <v>359.9</v>
       </c>
       <c r="N62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O62" s="1">
-        <v>624</v>
+        <v>779.9</v>
       </c>
       <c r="P62" s="1">
         <v>4</v>
       </c>
       <c r="Q62" s="1">
-        <v>764</v>
+        <v>1019.8</v>
       </c>
       <c r="R62" s="1">
         <v>5</v>
       </c>
       <c r="S62" s="1">
-        <v>548</v>
+        <v>636.10000000000014</v>
       </c>
       <c r="T62" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U62" s="1">
         <v>0</v>
@@ -5364,13 +5364,13 @@
         <v>0</v>
       </c>
       <c r="Y62" s="1">
-        <v>3.1857142857142859</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="Z62" s="1">
-        <v>31969.142857142859</v>
+        <v>52096</v>
       </c>
       <c r="AA62" s="1">
-        <v>5.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="63">
@@ -5387,73 +5387,73 @@
         <v>30</v>
       </c>
       <c r="E63" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F63" s="1">
-        <v>1891.9</v>
+        <v>2020.1</v>
       </c>
       <c r="G63" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H63" s="1">
-        <v>372</v>
+        <v>148</v>
       </c>
       <c r="I63" s="1">
-        <v>1891.9</v>
+        <v>1488.1000000000001</v>
       </c>
       <c r="J63" s="1">
         <v>6</v>
       </c>
       <c r="K63" s="1">
-        <v>1244</v>
+        <v>1012.1000000000001</v>
       </c>
       <c r="L63" s="1">
         <v>4</v>
       </c>
       <c r="M63" s="1">
-        <v>1616</v>
+        <v>1160.1000000000001</v>
       </c>
       <c r="N63" s="1">
         <v>5</v>
       </c>
       <c r="O63" s="1">
-        <v>1244</v>
+        <v>1012.1000000000001</v>
       </c>
       <c r="P63" s="1">
         <v>4</v>
       </c>
       <c r="Q63" s="1">
-        <v>1616</v>
+        <v>1160.1000000000001</v>
       </c>
       <c r="R63" s="1">
         <v>5</v>
       </c>
       <c r="S63" s="1">
-        <v>275.90000000000009</v>
+        <v>328</v>
       </c>
       <c r="T63" s="1">
         <v>1</v>
       </c>
       <c r="U63" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V63" s="1">
-        <v>0</v>
+        <v>995.9</v>
       </c>
       <c r="W63" s="1">
-        <v>0</v>
+        <v>463.9</v>
       </c>
       <c r="X63" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y63" s="1">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="Z63" s="1">
-        <v>42899.833333333336</v>
+        <v>57112</v>
       </c>
       <c r="AA63" s="1">
-        <v>10.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="64">
@@ -5470,73 +5470,73 @@
         <v>30</v>
       </c>
       <c r="E64" s="1">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="F64" s="1">
-        <v>1655.9</v>
+        <v>1015.9</v>
       </c>
       <c r="G64" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H64" s="1">
-        <v>239.9</v>
+        <v>184</v>
       </c>
       <c r="I64" s="1">
-        <v>1655.9</v>
+        <v>1015.9</v>
       </c>
       <c r="J64" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K64" s="1">
-        <v>119.99999999999997</v>
+        <v>831.9</v>
       </c>
       <c r="L64" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M64" s="1">
-        <v>359.9</v>
+        <v>1015.9</v>
       </c>
       <c r="N64" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O64" s="1">
-        <v>779.9</v>
+        <v>667.9</v>
       </c>
       <c r="P64" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q64" s="1">
-        <v>1019.8</v>
+        <v>851.9</v>
       </c>
       <c r="R64" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S64" s="1">
-        <v>636.10000000000014</v>
+        <v>164</v>
       </c>
       <c r="T64" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V64" s="1">
-        <v>0</v>
+        <v>491.9</v>
       </c>
       <c r="W64" s="1">
-        <v>0</v>
+        <v>491.9</v>
       </c>
       <c r="X64" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y64" s="1">
-        <v>3.3333333333333335</v>
+        <v>3.6799999999999997</v>
       </c>
       <c r="Z64" s="1">
-        <v>46307.444444444445</v>
+        <v>30008</v>
       </c>
       <c r="AA64" s="1">
-        <v>10.8</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="65">
@@ -5553,73 +5553,73 @@
         <v>30</v>
       </c>
       <c r="E65" s="1">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F65" s="1">
-        <v>2020.1</v>
+        <v>1295.8000000000002</v>
       </c>
       <c r="G65" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H65" s="1">
-        <v>148</v>
+        <v>152.1</v>
       </c>
       <c r="I65" s="1">
-        <v>1024.2</v>
+        <v>899.8</v>
       </c>
       <c r="J65" s="1">
         <v>4</v>
       </c>
       <c r="K65" s="1">
-        <v>876.2</v>
+        <v>723.69999999999993</v>
       </c>
       <c r="L65" s="1">
         <v>3</v>
       </c>
       <c r="M65" s="1">
-        <v>1024.2</v>
+        <v>899.8</v>
       </c>
       <c r="N65" s="1">
         <v>4</v>
       </c>
       <c r="O65" s="1">
-        <v>876.2</v>
+        <v>627.69999999999993</v>
       </c>
       <c r="P65" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>803.8</v>
+      </c>
+      <c r="R65" s="1">
         <v>3</v>
       </c>
-      <c r="Q65" s="1">
-        <v>1024.2</v>
-      </c>
-      <c r="R65" s="1">
-        <v>4</v>
-      </c>
       <c r="S65" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="T65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U65" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V65" s="1">
-        <v>995.9</v>
+        <v>803.8</v>
       </c>
       <c r="W65" s="1">
-        <v>463.9</v>
+        <v>803.8</v>
       </c>
       <c r="X65" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y65" s="1">
-        <v>3.55</v>
+        <v>3.5857142857142859</v>
       </c>
       <c r="Z65" s="1">
-        <v>29116.5</v>
+        <v>24376</v>
       </c>
       <c r="AA65" s="1">
-        <v>3.5999999999999996</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="66">
@@ -5636,22 +5636,22 @@
         <v>30</v>
       </c>
       <c r="E66" s="1">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="F66" s="1">
-        <v>2460</v>
+        <v>3455.8999999999996</v>
       </c>
       <c r="G66" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H66" s="1">
-        <v>100</v>
+        <v>735.9</v>
       </c>
       <c r="I66" s="1">
-        <v>100</v>
+        <v>528.19999999999993</v>
       </c>
       <c r="J66" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K66" s="1">
         <v>0</v>
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="1">
-        <v>100</v>
+        <v>168.2</v>
       </c>
       <c r="N66" s="1">
         <v>1</v>
@@ -5672,37 +5672,37 @@
         <v>0</v>
       </c>
       <c r="Q66" s="1">
-        <v>100</v>
+        <v>168.2</v>
       </c>
       <c r="R66" s="1">
         <v>1</v>
       </c>
       <c r="S66" s="1">
-        <v>0</v>
+        <v>359.99999999999994</v>
       </c>
       <c r="T66" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U66" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V66" s="1">
-        <v>2192.1</v>
+        <v>2160</v>
       </c>
       <c r="W66" s="1">
-        <v>2192.1</v>
+        <v>1239.8</v>
       </c>
       <c r="X66" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y66" s="1">
-        <v>3.7333333333333334</v>
+        <v>3.5818181818181825</v>
       </c>
       <c r="Z66" s="1">
-        <v>58696</v>
+        <v>0</v>
       </c>
       <c r="AA66" s="1">
-        <v>2.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -5719,46 +5719,46 @@
         <v>30</v>
       </c>
       <c r="E67" s="1">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F67" s="1">
-        <v>1015.9</v>
+        <v>2460</v>
       </c>
       <c r="G67" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H67" s="1">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="I67" s="1">
-        <v>524</v>
+        <v>2360</v>
       </c>
       <c r="J67" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K67" s="1">
-        <v>340</v>
+        <v>2192.1</v>
       </c>
       <c r="L67" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M67" s="1">
-        <v>524</v>
+        <v>2360</v>
       </c>
       <c r="N67" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O67" s="1">
-        <v>340</v>
+        <v>2192.1</v>
       </c>
       <c r="P67" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q67" s="1">
-        <v>524</v>
+        <v>2360</v>
       </c>
       <c r="R67" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S67" s="1">
         <v>0</v>
@@ -5770,22 +5770,22 @@
         <v>1</v>
       </c>
       <c r="V67" s="1">
-        <v>491.9</v>
+        <v>2192.1</v>
       </c>
       <c r="W67" s="1">
-        <v>491.9</v>
+        <v>2192.1</v>
       </c>
       <c r="X67" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y67" s="1">
-        <v>3.6799999999999997</v>
+        <v>3.7333333333333334</v>
       </c>
       <c r="Z67" s="1">
-        <v>30008</v>
+        <v>58696</v>
       </c>
       <c r="AA67" s="1">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="68">
@@ -5802,73 +5802,73 @@
         <v>30</v>
       </c>
       <c r="E68" s="1">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F68" s="1">
-        <v>1295.8000000000002</v>
+        <v>3939.6</v>
       </c>
       <c r="G68" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H68" s="1">
-        <v>152.1</v>
+        <v>431.8</v>
       </c>
       <c r="I68" s="1">
-        <v>272.1</v>
+        <v>3939.6</v>
       </c>
       <c r="J68" s="1">
+        <v>12</v>
+      </c>
+      <c r="K68" s="1">
+        <v>183.90000000000003</v>
+      </c>
+      <c r="L68" s="1">
+        <v>1</v>
+      </c>
+      <c r="M68" s="1">
+        <v>615.7</v>
+      </c>
+      <c r="N68" s="1">
         <v>2</v>
       </c>
-      <c r="K68" s="1">
-        <v>0</v>
-      </c>
-      <c r="L68" s="1">
-        <v>0</v>
-      </c>
-      <c r="M68" s="1">
-        <v>152.1</v>
-      </c>
-      <c r="N68" s="1">
-        <v>1</v>
-      </c>
       <c r="O68" s="1">
-        <v>0</v>
+        <v>2715.8999999999996</v>
       </c>
       <c r="P68" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q68" s="1">
-        <v>152.1</v>
+        <v>3147.7</v>
       </c>
       <c r="R68" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S68" s="1">
-        <v>120.00000000000003</v>
+        <v>791.90000000000009</v>
       </c>
       <c r="T68" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V68" s="1">
-        <v>803.8</v>
+        <v>0</v>
       </c>
       <c r="W68" s="1">
-        <v>803.8</v>
+        <v>0</v>
       </c>
       <c r="X68" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y68" s="1">
-        <v>3.5857142857142859</v>
+        <v>3.4416666666666664</v>
       </c>
       <c r="Z68" s="1">
-        <v>24376</v>
+        <v>55088</v>
       </c>
       <c r="AA68" s="1">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="69">
@@ -5885,73 +5885,73 @@
         <v>30</v>
       </c>
       <c r="E69" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F69" s="1">
-        <v>3939.6</v>
+        <v>1928.1</v>
       </c>
       <c r="G69" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H69" s="1">
-        <v>431.8</v>
+        <v>316</v>
       </c>
       <c r="I69" s="1">
-        <v>3939.6</v>
+        <v>1928.1</v>
       </c>
       <c r="J69" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K69" s="1">
-        <v>183.90000000000003</v>
+        <v>1612.1</v>
       </c>
       <c r="L69" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M69" s="1">
-        <v>615.7</v>
+        <v>1928.1</v>
       </c>
       <c r="N69" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O69" s="1">
-        <v>2715.8999999999996</v>
+        <v>1612.1</v>
       </c>
       <c r="P69" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q69" s="1">
-        <v>3147.7</v>
+        <v>1928.1</v>
       </c>
       <c r="R69" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S69" s="1">
-        <v>791.90000000000009</v>
+        <v>0</v>
       </c>
       <c r="T69" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V69" s="1">
-        <v>0</v>
+        <v>692.1</v>
       </c>
       <c r="W69" s="1">
-        <v>0</v>
+        <v>692.1</v>
       </c>
       <c r="X69" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y69" s="1">
-        <v>3.4416666666666664</v>
+        <v>3.3166666666666669</v>
       </c>
       <c r="Z69" s="1">
-        <v>55088</v>
+        <v>58604</v>
       </c>
       <c r="AA69" s="1">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="70">
@@ -5968,43 +5968,43 @@
         <v>30</v>
       </c>
       <c r="E70" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F70" s="1">
-        <v>1928.1</v>
+        <v>1071.9</v>
       </c>
       <c r="G70" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H70" s="1">
-        <v>316</v>
+        <v>108</v>
       </c>
       <c r="I70" s="1">
-        <v>1236</v>
+        <v>963.90000000000009</v>
       </c>
       <c r="J70" s="1">
         <v>4</v>
       </c>
       <c r="K70" s="1">
-        <v>920</v>
+        <v>772.00000000000011</v>
       </c>
       <c r="L70" s="1">
         <v>3</v>
       </c>
       <c r="M70" s="1">
-        <v>1236</v>
+        <v>963.90000000000009</v>
       </c>
       <c r="N70" s="1">
         <v>4</v>
       </c>
       <c r="O70" s="1">
-        <v>920</v>
+        <v>772.00000000000011</v>
       </c>
       <c r="P70" s="1">
         <v>3</v>
       </c>
       <c r="Q70" s="1">
-        <v>1236</v>
+        <v>963.90000000000009</v>
       </c>
       <c r="R70" s="1">
         <v>4</v>
@@ -6019,22 +6019,22 @@
         <v>1</v>
       </c>
       <c r="V70" s="1">
-        <v>692.1</v>
+        <v>963.90000000000009</v>
       </c>
       <c r="W70" s="1">
-        <v>692.1</v>
+        <v>963.90000000000009</v>
       </c>
       <c r="X70" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y70" s="1">
-        <v>3.3166666666666669</v>
+        <v>3.56</v>
       </c>
       <c r="Z70" s="1">
-        <v>32529.333333333332</v>
+        <v>40766</v>
       </c>
       <c r="AA70" s="1">
-        <v>2.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -6051,46 +6051,46 @@
         <v>30</v>
       </c>
       <c r="E71" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F71" s="1">
-        <v>1071.9</v>
+        <v>1375.8000000000002</v>
       </c>
       <c r="G71" s="1">
         <v>5</v>
       </c>
       <c r="H71" s="1">
-        <v>108</v>
+        <v>504</v>
       </c>
       <c r="I71" s="1">
-        <v>108</v>
+        <v>1375.8000000000002</v>
       </c>
       <c r="J71" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K71" s="1">
-        <v>0</v>
+        <v>871.80000000000018</v>
       </c>
       <c r="L71" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M71" s="1">
-        <v>108</v>
+        <v>1375.8000000000002</v>
       </c>
       <c r="N71" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O71" s="1">
-        <v>0</v>
+        <v>871.80000000000018</v>
       </c>
       <c r="P71" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q71" s="1">
-        <v>108</v>
+        <v>1375.8000000000002</v>
       </c>
       <c r="R71" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S71" s="1">
         <v>0</v>
@@ -6099,25 +6099,25 @@
         <v>0</v>
       </c>
       <c r="U71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V71" s="1">
-        <v>963.90000000000009</v>
+        <v>0</v>
       </c>
       <c r="W71" s="1">
-        <v>963.90000000000009</v>
+        <v>0</v>
       </c>
       <c r="X71" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y71" s="1">
-        <v>3.56</v>
+        <v>3.44</v>
       </c>
       <c r="Z71" s="1">
-        <v>40766</v>
+        <v>147804</v>
       </c>
       <c r="AA71" s="1">
-        <v>2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="72">
@@ -6134,46 +6134,46 @@
         <v>30</v>
       </c>
       <c r="E72" s="1">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="F72" s="1">
-        <v>1375.8000000000002</v>
+        <v>643.8</v>
       </c>
       <c r="G72" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H72" s="1">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="I72" s="1">
-        <v>1375.8000000000002</v>
+        <v>0</v>
       </c>
       <c r="J72" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K72" s="1">
-        <v>871.80000000000018</v>
+        <v>0</v>
       </c>
       <c r="L72" s="1">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="M72" s="1">
-        <v>1375.8000000000002</v>
+        <v>0</v>
       </c>
       <c r="N72" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O72" s="1">
-        <v>871.80000000000018</v>
+        <v>0</v>
       </c>
       <c r="P72" s="1">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Q72" s="1">
-        <v>1375.8000000000002</v>
+        <v>0</v>
       </c>
       <c r="R72" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S72" s="1">
         <v>0</v>
@@ -6194,13 +6194,13 @@
         <v>0</v>
       </c>
       <c r="Y72" s="1">
-        <v>3.44</v>
+        <v>3.55</v>
       </c>
       <c r="Z72" s="1">
-        <v>147804</v>
+        <v>32571</v>
       </c>
       <c r="AA72" s="1">
-        <v>7.1</v>
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
